--- a/biology/Zoologie/Adisomus_duckei/Adisomus_duckei.xlsx
+++ b/biology/Zoologie/Adisomus_duckei/Adisomus_duckei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adisomus duckei, unique représentant du genre Adisomus, est une espèce de schizomides de la famille des Hubbardiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'État d'Amazonas au Brésil[1],[2]. Elle se rencontre dans la Reserva Florestal Adolpho Ducke à Manaus.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'État d'Amazonas au Brésil,. Elle se rencontre dans la Reserva Florestal Adolpho Ducke à Manaus.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 2,62 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 2,62 mm.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Adolpho Ducke[2].
-Ce genre est nommée en l'honneur de Joachim Adis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Walter Adolpho Ducke.
+Ce genre est nommée en l'honneur de Joachim Adis.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cokendolpher &amp; Reddell, 2000 : New and rare Schizomida (Arachnida: Hubbardiidae) from South America. Amazoniana, vol. 16, no 1/2, p. 187-212 (texte intégral).</t>
         </is>
